--- a/Assets/06.Table/DarkTowerTable.xlsx
+++ b/Assets/06.Table/DarkTowerTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B52CCE-0287-45FF-860C-61D226615812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103DD3F6-449E-4423-8B7B-D0E0D9622E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DarkTowerTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="57">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,6 +253,14 @@
   </si>
   <si>
     <t>마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -842,11 +850,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1097,7 +1105,7 @@
         <v>9022</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D56" si="0">D3+1</f>
+        <f t="shared" ref="D8:D71" si="0">D3+1</f>
         <v>4</v>
       </c>
       <c r="E8">
@@ -1963,7 +1971,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" ref="F34:F56" si="1">F33*1.45</f>
+        <f t="shared" ref="F34:F71" si="1">F33*1.45</f>
         <v>1.8236887995749996E+108</v>
       </c>
       <c r="G34">
@@ -2727,9 +2735,519 @@
         <v>12800</v>
       </c>
     </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57">
+        <v>9022</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="1"/>
+        <v>9.3845787332689231E+111</v>
+      </c>
+      <c r="G57">
+        <v>1000</v>
+      </c>
+      <c r="H57">
+        <v>8</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58">
+        <v>9022</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3607639163239938E+112</v>
+      </c>
+      <c r="G58">
+        <v>1000</v>
+      </c>
+      <c r="H58">
+        <v>8</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59">
+        <v>9022</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9731076786697909E+112</v>
+      </c>
+      <c r="G59">
+        <v>1000</v>
+      </c>
+      <c r="H59">
+        <v>8</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60">
+        <v>9022</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="1"/>
+        <v>2.8610061340711965E+112</v>
+      </c>
+      <c r="G60">
+        <v>1000</v>
+      </c>
+      <c r="H60">
+        <v>8</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <v>9022</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="1"/>
+        <v>4.1484588944032349E+112</v>
+      </c>
+      <c r="G61">
+        <v>1000</v>
+      </c>
+      <c r="H61">
+        <v>8</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62">
+        <v>9022</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" si="1"/>
+        <v>6.0152653968846902E+112</v>
+      </c>
+      <c r="G62">
+        <v>1000</v>
+      </c>
+      <c r="H62">
+        <v>8</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63">
+        <v>9022</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="1"/>
+        <v>8.7221348254828007E+112</v>
+      </c>
+      <c r="G63">
+        <v>1000</v>
+      </c>
+      <c r="H63">
+        <v>8</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>14200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64">
+        <v>9022</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2647095496950061E+113</v>
+      </c>
+      <c r="G64">
+        <v>1000</v>
+      </c>
+      <c r="H64">
+        <v>8</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65">
+        <v>9022</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8338288470577587E+113</v>
+      </c>
+      <c r="G65">
+        <v>1000</v>
+      </c>
+      <c r="H65">
+        <v>8</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>14600</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66">
+        <v>9022</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" si="1"/>
+        <v>2.65905182823375E+113</v>
+      </c>
+      <c r="G66">
+        <v>1000</v>
+      </c>
+      <c r="H66">
+        <v>8</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67">
+        <v>9022</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" s="2">
+        <f t="shared" si="1"/>
+        <v>3.8556251509389371E+113</v>
+      </c>
+      <c r="G67">
+        <v>1000</v>
+      </c>
+      <c r="H67">
+        <v>8</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68">
+        <v>9022</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" si="1"/>
+        <v>5.5906564688614585E+113</v>
+      </c>
+      <c r="G68">
+        <v>1000</v>
+      </c>
+      <c r="H68">
+        <v>8</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69">
+        <v>9022</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" si="1"/>
+        <v>8.106451879849114E+113</v>
+      </c>
+      <c r="G69">
+        <v>1000</v>
+      </c>
+      <c r="H69">
+        <v>8</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>9022</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1754355225781215E+114</v>
+      </c>
+      <c r="G70">
+        <v>1000</v>
+      </c>
+      <c r="H70">
+        <v>8</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71">
+        <v>9022</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7043815077382761E+114</v>
+      </c>
+      <c r="G71">
+        <v>1000</v>
+      </c>
+      <c r="H71">
+        <v>8</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>15800</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 D3:J32 G33:J56 D33:E56 A3:C56">
+  <conditionalFormatting sqref="A2:J2 D3:J32 D33:E69 A3:C69 G33:J71 A70:E71">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -2744,7 +3262,7 @@
   <dimension ref="A1:X66"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3930,10 +4448,20 @@
         <v>1E+104</v>
       </c>
       <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
+      <c r="L35" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M35" s="16">
+        <v>112</v>
+      </c>
+      <c r="N35" s="17">
+        <f t="shared" ref="N35:N36" si="8">POWER(10,M35)</f>
+        <v>9.9999999999999993E+111</v>
+      </c>
+      <c r="O35" s="17" t="str">
+        <f t="shared" ref="O35:O36" si="9">RIGHT(N35,M35)</f>
+        <v>1E+112</v>
+      </c>
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
       <c r="R35" s="11"/>
@@ -3968,10 +4496,20 @@
         <v>1E+104</v>
       </c>
       <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
+      <c r="L36" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="M36" s="16">
+        <v>116</v>
+      </c>
+      <c r="N36" s="17">
+        <f t="shared" si="8"/>
+        <v>1E+116</v>
+      </c>
+      <c r="O36" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v>1E+116</v>
+      </c>
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
